--- a/GIS/Files/TWI per catchment2.xlsx
+++ b/GIS/Files/TWI per catchment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\@@ Python\Jaar 5\Q4\Luxemburg\tracer-experiment-luxemburg\GIS\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A989799-686B-4AF9-BF56-1C9178ED066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13F965-C849-46D4-80AE-1A2BE122330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0152310E-F948-49CA-93D3-3EF9DE3A676D}"/>
   </bookViews>
@@ -212,9 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,6 +282,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5EFE2BF-0E24-4DDB-A87D-9B162C0EBA65}" name="Table_TWI_per_catchment2" displayName="Table_TWI_per_catchment2" ref="A1:AC26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AC26" xr:uid="{D5EFE2BF-0E24-4DDB-A87D-9B162C0EBA65}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC26">
+    <sortCondition ref="I1:I26"/>
+  </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{BD8D2474-3AB9-4E4A-AC70-5A488D3F703C}" uniqueName="1" name="fid" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{08AEF5A8-974E-4582-ABCC-FDC0A96C2D9A}" uniqueName="2" name="cat" queryTableFieldId="2"/>
@@ -617,7 +619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EDCA3-28E8-4C43-92AD-DD84BF9FE1B9}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,7 +640,7 @@
     <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.21875" customWidth="1"/>
     <col min="21" max="21" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -739,654 +743,654 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>879</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>424787764390558</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>658415676</v>
+        <v>687222891937142</v>
       </c>
       <c r="M2">
-        <v>1060369412</v>
+        <v>1022919412</v>
       </c>
       <c r="N2">
-        <v>659582657738805</v>
+        <v>687222891937142</v>
       </c>
       <c r="O2">
-        <v>105628497591911</v>
+        <v>1022919412</v>
       </c>
       <c r="P2">
-        <v>19361</v>
+        <v>88677</v>
       </c>
       <c r="Q2">
-        <v>-38630747795105</v>
+        <v>-560180711746216</v>
       </c>
       <c r="R2">
-        <v>199580554962158</v>
+        <v>226844043731689</v>
       </c>
       <c r="S2">
-        <v>238211302757263</v>
+        <v>282862114906311</v>
       </c>
       <c r="T2">
-        <v>991075024747459</v>
+        <v>979624625556729</v>
       </c>
       <c r="U2">
-        <v>379609244042802</v>
+        <v>393726075748742</v>
       </c>
       <c r="V2">
-        <v>144103178162747</v>
+        <v>155020222724504</v>
       </c>
       <c r="W2">
-        <v>38302775729772</v>
+        <v>401915249450761</v>
       </c>
       <c r="X2">
-        <v>191882035541356</v>
+        <v>868701729204941</v>
       </c>
       <c r="Y2">
-        <v>645111</v>
+        <v>626672</v>
       </c>
       <c r="Z2">
-        <v>113477</v>
+        <v>106633</v>
       </c>
       <c r="AA2">
-        <v>130297</v>
+        <v>130983</v>
       </c>
       <c r="AB2">
-        <v>140333</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+        <v>140054</v>
+      </c>
+      <c r="AC2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>981</v>
+      </c>
+      <c r="D3">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
+      <c r="G3" t="s">
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>512506484303348</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>666465676</v>
+        <v>685015676</v>
       </c>
       <c r="M3">
-        <v>1059569412</v>
+        <v>102462075393797</v>
       </c>
       <c r="N3">
-        <v>666440670568572</v>
+        <v>685015676</v>
       </c>
       <c r="O3">
-        <v>105444440815867</v>
+        <v>102462075393797</v>
       </c>
       <c r="P3">
-        <v>32165</v>
+        <v>333</v>
       </c>
       <c r="Q3">
-        <v>-492743730545044</v>
+        <v>962153136730194</v>
       </c>
       <c r="R3">
-        <v>210154628753662</v>
+        <v>22138822555542</v>
       </c>
       <c r="S3">
-        <v>259429001808167</v>
+        <v>211766694188118</v>
       </c>
       <c r="T3">
-        <v>902892133161048</v>
+        <v>903340311970439</v>
       </c>
       <c r="U3">
-        <v>370224396980678</v>
+        <v>428065717521646</v>
       </c>
       <c r="V3">
-        <v>137066104119706</v>
+        <v>183240258517322</v>
       </c>
       <c r="W3">
-        <v>410042776299881</v>
+        <v>47386982718386</v>
       </c>
       <c r="X3">
-        <v>290415254631251</v>
+        <v>300812323886156</v>
       </c>
       <c r="Y3">
-        <v>597807</v>
+        <v>572347</v>
       </c>
       <c r="Z3">
-        <v>776816</v>
+        <v>711375</v>
       </c>
       <c r="AA3">
-        <v>125777</v>
+        <v>123351</v>
       </c>
       <c r="AB3">
-        <v>135222</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+        <v>129387</v>
+      </c>
+      <c r="AC3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>783</v>
+      </c>
+      <c r="D4">
+        <v>577</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>177</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>27</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>127478186923743</v>
       </c>
       <c r="L4">
-        <v>654588496994314</v>
+        <v>675915676</v>
       </c>
       <c r="M4">
-        <v>1055669412</v>
+        <v>1039819412</v>
       </c>
       <c r="N4">
-        <v>654588496994314</v>
+        <v>675940670561375</v>
       </c>
       <c r="O4">
-        <v>1055669412</v>
+        <v>103969440815989</v>
       </c>
       <c r="P4">
-        <v>7523</v>
+        <v>55526</v>
       </c>
       <c r="Q4">
-        <v>-141994535923004</v>
+        <v>-5937912940979</v>
       </c>
       <c r="R4">
-        <v>187246284484863</v>
+        <v>216318244934082</v>
       </c>
       <c r="S4">
-        <v>201445738077164</v>
+        <v>275697374343872</v>
       </c>
       <c r="T4">
-        <v>965920684862152</v>
+        <v>993716510724266</v>
       </c>
       <c r="U4">
-        <v>391422822022327</v>
+        <v>374608458714238</v>
       </c>
       <c r="V4">
-        <v>153211825599922</v>
+        <v>140331497340257</v>
       </c>
       <c r="W4">
-        <v>405232881080901</v>
+        <v>376977190850142</v>
       </c>
       <c r="X4">
-        <v>726662131221797</v>
+        <v>551771029744756</v>
       </c>
       <c r="Y4">
-        <v>611449</v>
+        <v>661645</v>
       </c>
       <c r="Z4">
-        <v>976087</v>
+        <v>108038</v>
       </c>
       <c r="AA4">
-        <v>133015</v>
+        <v>132129</v>
       </c>
       <c r="AB4">
-        <v>139843</v>
-      </c>
-      <c r="AC4" s="1" t="s">
+        <v>139889</v>
+      </c>
+      <c r="AC4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>916</v>
+      </c>
+      <c r="D5">
+        <v>543</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>26</v>
-      </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>474895005376177</v>
+        <v>182516775486986</v>
       </c>
       <c r="L5">
-        <v>649315676</v>
+        <v>676515676</v>
       </c>
       <c r="M5">
-        <v>1058019412</v>
+        <v>1024669412</v>
       </c>
       <c r="N5">
-        <v>647648208313385</v>
+        <v>678190670556476</v>
       </c>
       <c r="O5">
-        <v>105357283150177</v>
+        <v>102394440815919</v>
       </c>
       <c r="P5">
-        <v>42439</v>
+        <v>32588</v>
       </c>
       <c r="Q5">
-        <v>-498470449447632</v>
+        <v>-306223201751709</v>
       </c>
       <c r="R5">
-        <v>203843955993652</v>
+        <v>222713432312012</v>
       </c>
       <c r="S5">
-        <v>253691000938416</v>
+        <v>253335752487183</v>
       </c>
       <c r="T5">
-        <v>977185991682824</v>
+        <v>942723292083669</v>
       </c>
       <c r="U5">
-        <v>380029813713258</v>
+        <v>378139415911517</v>
       </c>
       <c r="V5">
-        <v>144422659310933</v>
+        <v>142989417865903</v>
       </c>
       <c r="W5">
-        <v>388902232479616</v>
+        <v>401113899578877</v>
       </c>
       <c r="X5">
-        <v>414707963010274</v>
+        <v>307214666424226</v>
       </c>
       <c r="Y5">
-        <v>632813</v>
+        <v>622921</v>
       </c>
       <c r="Z5">
-        <v>109805</v>
+        <v>869164</v>
       </c>
       <c r="AA5">
-        <v>130998</v>
+        <v>128779</v>
       </c>
       <c r="AB5">
-        <v>138376</v>
-      </c>
-      <c r="AC5" s="1" t="s">
+        <v>136775</v>
+      </c>
+      <c r="AC5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>914</v>
+      </c>
+      <c r="D6">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>217</v>
-      </c>
-      <c r="D6">
-        <v>475</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>499064049491567</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>672865676</v>
+        <v>678965676</v>
       </c>
       <c r="M6">
-        <v>1051519412</v>
+        <v>102800624901829</v>
       </c>
       <c r="N6">
-        <v>674088940185462</v>
+        <v>678965676</v>
       </c>
       <c r="O6">
-        <v>10466810117187</v>
+        <v>102800624901829</v>
       </c>
       <c r="P6">
-        <v>21737</v>
+        <v>17795</v>
       </c>
       <c r="Q6">
-        <v>-203654479980469</v>
+        <v>-299767637252808</v>
       </c>
       <c r="R6">
-        <v>198887348175049</v>
+        <v>221614971160889</v>
       </c>
       <c r="S6">
-        <v>219252796173096</v>
+        <v>251591734886169</v>
       </c>
       <c r="T6">
-        <v>968080384030388</v>
+        <v>967325667974399</v>
       </c>
       <c r="U6">
-        <v>376556262890516</v>
+        <v>376167900825285</v>
       </c>
       <c r="V6">
-        <v>141794619122071</v>
+        <v>141502289611301</v>
       </c>
       <c r="W6">
-        <v>388972103042525</v>
+        <v>388874102362019</v>
       </c>
       <c r="X6">
-        <v>210431633076685</v>
+        <v>172135602616044</v>
       </c>
       <c r="Y6">
-        <v>63436</v>
+        <v>653224</v>
       </c>
       <c r="Z6">
-        <v>10637</v>
+        <v>871855</v>
       </c>
       <c r="AA6">
-        <v>128681</v>
+        <v>130072</v>
       </c>
       <c r="AB6">
-        <v>136843</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+        <v>137574</v>
+      </c>
+      <c r="AC6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>143</v>
+        <v>899</v>
       </c>
       <c r="D7">
-        <v>165</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>65509227994264</v>
       </c>
       <c r="L7">
-        <v>655569849412356</v>
+        <v>677265676</v>
       </c>
       <c r="M7">
-        <v>1052219412</v>
+        <v>1030819412</v>
       </c>
       <c r="N7">
-        <v>655569849412356</v>
+        <v>676800623293803</v>
       </c>
       <c r="O7">
-        <v>1052219412</v>
+        <v>103035803159762</v>
       </c>
       <c r="P7">
-        <v>3202</v>
+        <v>320</v>
       </c>
       <c r="Q7">
-        <v>252291828393936</v>
+        <v>15627578496933</v>
       </c>
       <c r="R7">
-        <v>20602201461792</v>
+        <v>217906475067139</v>
       </c>
       <c r="S7">
-        <v>203499096333981</v>
+        <v>202278896570206</v>
       </c>
       <c r="T7">
-        <v>943734919057832</v>
+        <v>846721476130188</v>
       </c>
       <c r="U7">
-        <v>362072850098204</v>
+        <v>375818730795708</v>
       </c>
       <c r="V7">
-        <v>131096748778237</v>
+        <v>141239718416897</v>
       </c>
       <c r="W7">
-        <v>38365948190163</v>
+        <v>443851657706062</v>
       </c>
       <c r="X7">
-        <v>302183921082318</v>
+        <v>27095087236166</v>
       </c>
       <c r="Y7">
-        <v>640887</v>
+        <v>553687</v>
       </c>
       <c r="Z7">
-        <v>809754</v>
+        <v>688323</v>
       </c>
       <c r="AA7">
-        <v>129998</v>
+        <v>127299</v>
       </c>
       <c r="AB7">
-        <v>13577</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+        <v>133985</v>
+      </c>
+      <c r="AC7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>422</v>
+        <v>986</v>
       </c>
       <c r="D8">
-        <v>434</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>529916898392868</v>
       </c>
       <c r="L8">
-        <v>659590670570045</v>
+        <v>672815676</v>
       </c>
       <c r="M8">
-        <v>105084440815658</v>
+        <v>1024419412</v>
       </c>
       <c r="N8">
-        <v>659590670570045</v>
+        <v>674640670559152</v>
       </c>
       <c r="O8">
-        <v>105084440815658</v>
+        <v>102939440815872</v>
       </c>
       <c r="P8">
-        <v>1325</v>
+        <v>380</v>
       </c>
       <c r="Q8">
-        <v>-503398835659027</v>
+        <v>-615704774856567</v>
       </c>
       <c r="R8">
-        <v>199084548950195</v>
+        <v>149167919158936</v>
       </c>
       <c r="S8">
-        <v>204118537306786</v>
+        <v>210738396644592</v>
       </c>
       <c r="T8">
-        <v>907919715328037</v>
+        <v>885529208955796</v>
       </c>
       <c r="U8">
-        <v>374566457777733</v>
+        <v>425987108309043</v>
       </c>
       <c r="V8">
-        <v>140300031292158</v>
+        <v>181465016445501</v>
       </c>
       <c r="W8">
-        <v>412554603071264</v>
+        <v>481053706643242</v>
       </c>
       <c r="X8">
-        <v>120299362280965</v>
+        <v>336501099403203</v>
       </c>
       <c r="Y8">
-        <v>568291</v>
+        <v>448108</v>
       </c>
       <c r="Z8">
-        <v>850851</v>
+        <v>1067</v>
       </c>
       <c r="AA8">
-        <v>126973</v>
+        <v>125969</v>
       </c>
       <c r="AB8">
-        <v>132628</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+        <v>134575</v>
+      </c>
+      <c r="AC8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>164</v>
+        <v>809</v>
       </c>
       <c r="D9">
-        <v>157</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1395,87 +1399,87 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6579914909972</v>
+        <v>670565676</v>
       </c>
       <c r="M9">
-        <v>1052419412</v>
+        <v>103934596477684</v>
       </c>
       <c r="N9">
-        <v>6579914909972</v>
+        <v>670565676</v>
       </c>
       <c r="O9">
-        <v>1052419412</v>
+        <v>103934596477684</v>
       </c>
       <c r="P9">
-        <v>4252</v>
+        <v>19196</v>
       </c>
       <c r="Q9">
-        <v>-391372299194336</v>
+        <v>-269901275634766</v>
       </c>
       <c r="R9">
-        <v>207917041778564</v>
+        <v>220002174377441</v>
       </c>
       <c r="S9">
-        <v>247054271697998</v>
+        <v>246992301940918</v>
       </c>
       <c r="T9">
-        <v>952645153833706</v>
+        <v>878132343566735</v>
       </c>
       <c r="U9">
-        <v>402797211151702</v>
+        <v>358381803635538</v>
       </c>
       <c r="V9">
-        <v>162245593311589</v>
+        <v>128437517177061</v>
       </c>
       <c r="W9">
-        <v>422819776630086</v>
+        <v>408118213912823</v>
       </c>
       <c r="X9">
-        <v>405064719410092</v>
+        <v>168566284671071</v>
       </c>
       <c r="Y9">
-        <v>600209</v>
+        <v>625125</v>
       </c>
       <c r="Z9">
-        <v>824591</v>
+        <v>723025</v>
       </c>
       <c r="AA9">
-        <v>131192</v>
+        <v>124381</v>
       </c>
       <c r="AB9">
-        <v>138666</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+        <v>133515</v>
+      </c>
+      <c r="AC9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>858</v>
+      </c>
+      <c r="D10">
+        <v>521</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>9</v>
-      </c>
-      <c r="C10">
-        <v>426</v>
-      </c>
-      <c r="D10">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1484,87 +1488,87 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>660415676</v>
+        <v>671565676</v>
       </c>
       <c r="M10">
-        <v>104987009447439</v>
+        <v>103287709670052</v>
       </c>
       <c r="N10">
-        <v>660415676</v>
+        <v>671565676</v>
       </c>
       <c r="O10">
-        <v>104987009447439</v>
+        <v>103287709670052</v>
       </c>
       <c r="P10">
-        <v>538</v>
+        <v>16991</v>
       </c>
       <c r="Q10">
-        <v>176130795478821</v>
+        <v>-157281947135925</v>
       </c>
       <c r="R10">
-        <v>208634033203125</v>
+        <v>220630149841309</v>
       </c>
       <c r="S10">
-        <v>191020953655243</v>
+        <v>236358344554901</v>
       </c>
       <c r="T10">
-        <v>932958930664346</v>
+        <v>978106897156411</v>
       </c>
       <c r="U10">
-        <v>408070691489797</v>
+        <v>387358537318232</v>
       </c>
       <c r="V10">
-        <v>166521689252961</v>
+        <v>15004663643332</v>
       </c>
       <c r="W10">
-        <v>4373940567772</v>
+        <v>396028837384109</v>
       </c>
       <c r="X10">
-        <v>501931904697418</v>
+        <v>166190142895846</v>
       </c>
       <c r="Y10">
-        <v>593022</v>
+        <v>628618</v>
       </c>
       <c r="Z10">
-        <v>760101</v>
+        <v>967722</v>
       </c>
       <c r="AA10">
-        <v>124392</v>
+        <v>131536</v>
       </c>
       <c r="AB10">
-        <v>130417</v>
-      </c>
-      <c r="AC10" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>803</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>10</v>
-      </c>
-      <c r="C11">
-        <v>498</v>
-      </c>
-      <c r="D11">
-        <v>154</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1573,707 +1577,710 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>663715676</v>
+        <v>669165676</v>
       </c>
       <c r="M11">
-        <v>104776923861465</v>
+        <v>104027871794455</v>
       </c>
       <c r="N11">
-        <v>663715676</v>
+        <v>669165676</v>
       </c>
       <c r="O11">
-        <v>104776923861465</v>
+        <v>104027871794455</v>
       </c>
       <c r="P11">
-        <v>5274</v>
+        <v>2543</v>
       </c>
       <c r="Q11">
-        <v>-921087324619293</v>
+        <v>448782853782177</v>
       </c>
       <c r="R11">
-        <v>210941867828369</v>
+        <v>217388858795166</v>
       </c>
       <c r="S11">
-        <v>220152741074562</v>
+        <v>216940075941384</v>
       </c>
       <c r="T11">
-        <v>980051595631211</v>
+        <v>117415018219997</v>
       </c>
       <c r="U11">
-        <v>381199199192371</v>
+        <v>352825359685698</v>
       </c>
       <c r="V11">
-        <v>145312829464905</v>
+        <v>124485734437342</v>
       </c>
       <c r="W11">
-        <v>388958296575045</v>
+        <v>300494234072015</v>
       </c>
       <c r="X11">
-        <v>516879211535901</v>
+        <v>298586391333453</v>
       </c>
       <c r="Y11">
-        <v>632429</v>
+        <v>930006</v>
       </c>
       <c r="Z11">
-        <v>927746</v>
+        <v>131336</v>
       </c>
       <c r="AA11">
-        <v>131319</v>
+        <v>136654</v>
       </c>
       <c r="AB11">
-        <v>142758</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+        <v>14208</v>
+      </c>
+      <c r="AC11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>808</v>
+      </c>
+      <c r="D12">
+        <v>499</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>469</v>
-      </c>
-      <c r="D12">
-        <v>435</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12">
-        <v>21</v>
-      </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
+        <v>202020971845189</v>
+      </c>
+      <c r="L12">
+        <v>671265676</v>
+      </c>
+      <c r="M12">
+        <v>1042819412</v>
+      </c>
+      <c r="N12">
+        <v>672590670562978</v>
+      </c>
+      <c r="O12">
+        <v>104129440815915</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>479748582839966</v>
+      </c>
+      <c r="R12">
+        <v>479748582839966</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>658265676</v>
-      </c>
-      <c r="M12">
-        <v>104821426461181</v>
-      </c>
-      <c r="N12">
-        <v>658265676</v>
-      </c>
-      <c r="O12">
-        <v>104821426461181</v>
-      </c>
-      <c r="P12">
-        <v>6382</v>
-      </c>
-      <c r="Q12">
-        <v>-444592523574829</v>
-      </c>
-      <c r="R12">
-        <v>186907844543457</v>
-      </c>
-      <c r="S12">
-        <v>23136709690094</v>
-      </c>
       <c r="T12">
-        <v>923013578098068</v>
+        <v>479748582839966</v>
       </c>
       <c r="U12">
-        <v>365754067049434</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>133776037563202</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>396260765527518</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>589067265542187</v>
+        <v>479748582839966</v>
       </c>
       <c r="Y12">
-        <v>60674</v>
+        <v>479749</v>
       </c>
       <c r="Z12">
-        <v>801533</v>
+        <v>479749</v>
       </c>
       <c r="AA12">
-        <v>128346</v>
+        <v>479749</v>
       </c>
       <c r="AB12">
-        <v>135531</v>
-      </c>
-      <c r="AC12" s="1" t="s">
+        <v>479749</v>
+      </c>
+      <c r="AC12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>785</v>
+      </c>
+      <c r="D13">
+        <v>460</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>423</v>
-      </c>
-      <c r="D13">
-        <v>133</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>336544730775643</v>
       </c>
       <c r="L13">
-        <v>666192811706974</v>
+        <v>656415676</v>
       </c>
       <c r="M13">
-        <v>1045069412</v>
+        <v>1045119412</v>
       </c>
       <c r="N13">
-        <v>666192811706974</v>
+        <v>659140670568197</v>
       </c>
       <c r="O13">
-        <v>1045069412</v>
+        <v>104314440815581</v>
       </c>
       <c r="P13">
-        <v>17404</v>
+        <v>30300</v>
       </c>
       <c r="Q13">
-        <v>-236646056175232</v>
+        <v>-254145121574402</v>
       </c>
       <c r="R13">
-        <v>217085590362549</v>
+        <v>219135189056396</v>
       </c>
       <c r="S13">
-        <v>240750195980072</v>
+        <v>244549701213837</v>
       </c>
       <c r="T13">
-        <v>996346836445168</v>
+        <v>973146163796576</v>
       </c>
       <c r="U13">
-        <v>383348341333881</v>
+        <v>36790107536092</v>
       </c>
       <c r="V13">
-        <v>146955950803437</v>
+        <v>135351201251722</v>
       </c>
       <c r="W13">
-        <v>384753910296555</v>
+        <v>378053255561952</v>
       </c>
       <c r="X13">
-        <v>173404203414917</v>
+        <v>294863287630362</v>
       </c>
       <c r="Y13">
-        <v>64605</v>
+        <v>648196</v>
       </c>
       <c r="Z13">
-        <v>101289</v>
+        <v>938609</v>
       </c>
       <c r="AA13">
-        <v>132085</v>
+        <v>131325</v>
       </c>
       <c r="AB13">
-        <v>141091</v>
-      </c>
-      <c r="AC13" s="1" t="s">
+        <v>137401</v>
+      </c>
+      <c r="AC13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="D14">
-        <v>460</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>336544730775643</v>
+        <v>735033264692394</v>
       </c>
       <c r="L14">
-        <v>656415676</v>
+        <v>668315676</v>
       </c>
       <c r="M14">
-        <v>1045119412</v>
+        <v>1043119412</v>
       </c>
       <c r="N14">
-        <v>659140670568197</v>
+        <v>668248502017688</v>
       </c>
       <c r="O14">
-        <v>104314440815581</v>
+        <v>104308957251102</v>
       </c>
       <c r="P14">
-        <v>30300</v>
+        <v>2089</v>
       </c>
       <c r="Q14">
-        <v>-254145121574402</v>
+        <v>-160331881046295</v>
       </c>
       <c r="R14">
-        <v>219135189056396</v>
+        <v>216077976226807</v>
       </c>
       <c r="S14">
-        <v>244549701213837</v>
+        <v>232111164331436</v>
       </c>
       <c r="T14">
-        <v>973146163796576</v>
+        <v>883813857142722</v>
       </c>
       <c r="U14">
-        <v>36790107536092</v>
+        <v>349901976845067</v>
       </c>
       <c r="V14">
-        <v>135351201251722</v>
+        <v>122431393400086</v>
       </c>
       <c r="W14">
-        <v>378053255561952</v>
+        <v>395900080109927</v>
       </c>
       <c r="X14">
-        <v>294863287630362</v>
+        <v>184628714757115</v>
       </c>
       <c r="Y14">
-        <v>648196</v>
+        <v>615174</v>
       </c>
       <c r="Z14">
-        <v>938609</v>
+        <v>735073</v>
       </c>
       <c r="AA14">
-        <v>131325</v>
+        <v>124979</v>
       </c>
       <c r="AB14">
-        <v>137401</v>
-      </c>
-      <c r="AC14" s="1" t="s">
+        <v>13147</v>
+      </c>
+      <c r="AC14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>802</v>
+        <v>423</v>
       </c>
       <c r="D15">
-        <v>129</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>735033264692394</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>668315676</v>
+        <v>666192811706974</v>
       </c>
       <c r="M15">
-        <v>1043119412</v>
+        <v>1045069412</v>
       </c>
       <c r="N15">
-        <v>668248502017688</v>
+        <v>666192811706974</v>
       </c>
       <c r="O15">
-        <v>104308957251102</v>
+        <v>1045069412</v>
       </c>
       <c r="P15">
-        <v>2089</v>
+        <v>17404</v>
       </c>
       <c r="Q15">
-        <v>-160331881046295</v>
+        <v>-236646056175232</v>
       </c>
       <c r="R15">
-        <v>216077976226807</v>
+        <v>217085590362549</v>
       </c>
       <c r="S15">
-        <v>232111164331436</v>
+        <v>240750195980072</v>
       </c>
       <c r="T15">
-        <v>883813857142722</v>
+        <v>996346836445168</v>
       </c>
       <c r="U15">
-        <v>349901976845067</v>
+        <v>383348341333881</v>
       </c>
       <c r="V15">
-        <v>122431393400086</v>
+        <v>146955950803437</v>
       </c>
       <c r="W15">
-        <v>395900080109927</v>
+        <v>384753910296555</v>
       </c>
       <c r="X15">
-        <v>184628714757115</v>
+        <v>173404203414917</v>
       </c>
       <c r="Y15">
-        <v>615174</v>
+        <v>64605</v>
       </c>
       <c r="Z15">
-        <v>735073</v>
+        <v>101289</v>
       </c>
       <c r="AA15">
-        <v>124979</v>
+        <v>132085</v>
       </c>
       <c r="AB15">
-        <v>13147</v>
-      </c>
-      <c r="AC15" s="1" t="s">
+        <v>141091</v>
+      </c>
+      <c r="AC15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>803</v>
+        <v>217</v>
       </c>
       <c r="D16">
-        <v>130</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>499064049491567</v>
       </c>
       <c r="L16">
-        <v>669165676</v>
+        <v>672865676</v>
       </c>
       <c r="M16">
-        <v>104027871794455</v>
+        <v>1051519412</v>
       </c>
       <c r="N16">
-        <v>669165676</v>
+        <v>674088940185462</v>
       </c>
       <c r="O16">
-        <v>104027871794455</v>
+        <v>10466810117187</v>
       </c>
       <c r="P16">
-        <v>2543</v>
+        <v>21737</v>
       </c>
       <c r="Q16">
-        <v>448782853782177</v>
+        <v>-203654479980469</v>
       </c>
       <c r="R16">
-        <v>217388858795166</v>
+        <v>198887348175049</v>
       </c>
       <c r="S16">
-        <v>216940075941384</v>
+        <v>219252796173096</v>
       </c>
       <c r="T16">
-        <v>117415018219997</v>
+        <v>968080384030388</v>
       </c>
       <c r="U16">
-        <v>352825359685698</v>
+        <v>376556262890516</v>
       </c>
       <c r="V16">
-        <v>124485734437342</v>
+        <v>141794619122071</v>
       </c>
       <c r="W16">
-        <v>300494234072015</v>
+        <v>388972103042525</v>
       </c>
       <c r="X16">
-        <v>298586391333453</v>
+        <v>210431633076685</v>
       </c>
       <c r="Y16">
-        <v>930006</v>
+        <v>63436</v>
       </c>
       <c r="Z16">
-        <v>131336</v>
+        <v>10637</v>
       </c>
       <c r="AA16">
-        <v>136654</v>
+        <v>128681</v>
       </c>
       <c r="AB16">
-        <v>14208</v>
-      </c>
-      <c r="AC16" s="1" t="s">
+        <v>136843</v>
+      </c>
+      <c r="AC16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>498</v>
+      </c>
+      <c r="D17">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>808</v>
-      </c>
-      <c r="D17">
-        <v>499</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>11</v>
-      </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>202020971845189</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>671265676</v>
+        <v>663715676</v>
       </c>
       <c r="M17">
-        <v>1042819412</v>
+        <v>104776923861465</v>
       </c>
       <c r="N17">
-        <v>672590670562978</v>
+        <v>663715676</v>
       </c>
       <c r="O17">
-        <v>104129440815915</v>
+        <v>104776923861465</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>5274</v>
       </c>
       <c r="Q17">
-        <v>479748582839966</v>
+        <v>-921087324619293</v>
       </c>
       <c r="R17">
-        <v>479748582839966</v>
+        <v>210941867828369</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>220152741074562</v>
       </c>
       <c r="T17">
-        <v>479748582839966</v>
+        <v>980051595631211</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>381199199192371</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>145312829464905</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>388958296575045</v>
       </c>
       <c r="X17">
-        <v>479748582839966</v>
+        <v>516879211535901</v>
       </c>
       <c r="Y17">
-        <v>479749</v>
+        <v>632429</v>
       </c>
       <c r="Z17">
-        <v>479749</v>
+        <v>927746</v>
       </c>
       <c r="AA17">
-        <v>479749</v>
+        <v>131319</v>
       </c>
       <c r="AB17">
-        <v>479749</v>
-      </c>
-      <c r="AC17" s="1" t="s">
+        <v>142758</v>
+      </c>
+      <c r="AC17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>809</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>127</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>512506484303348</v>
       </c>
       <c r="L18">
-        <v>670565676</v>
+        <v>666465676</v>
       </c>
       <c r="M18">
-        <v>103934596477684</v>
+        <v>1059569412</v>
       </c>
       <c r="N18">
-        <v>670565676</v>
+        <v>666440670568572</v>
       </c>
       <c r="O18">
-        <v>103934596477684</v>
+        <v>105444440815867</v>
       </c>
       <c r="P18">
-        <v>19196</v>
+        <v>32165</v>
       </c>
       <c r="Q18">
-        <v>-269901275634766</v>
+        <v>-492743730545044</v>
       </c>
       <c r="R18">
-        <v>220002174377441</v>
+        <v>210154628753662</v>
       </c>
       <c r="S18">
-        <v>246992301940918</v>
+        <v>259429001808167</v>
       </c>
       <c r="T18">
-        <v>878132343566735</v>
+        <v>902892133161048</v>
       </c>
       <c r="U18">
-        <v>358381803635538</v>
+        <v>370224396980678</v>
       </c>
       <c r="V18">
-        <v>128437517177061</v>
+        <v>137066104119706</v>
       </c>
       <c r="W18">
-        <v>408118213912823</v>
+        <v>410042776299881</v>
       </c>
       <c r="X18">
-        <v>168566284671071</v>
+        <v>290415254631251</v>
       </c>
       <c r="Y18">
-        <v>625125</v>
+        <v>597807</v>
       </c>
       <c r="Z18">
-        <v>723025</v>
+        <v>776816</v>
       </c>
       <c r="AA18">
-        <v>124381</v>
+        <v>125777</v>
       </c>
       <c r="AB18">
-        <v>133515</v>
-      </c>
-      <c r="AC18" s="1" t="s">
+        <v>135222</v>
+      </c>
+      <c r="AC18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>858</v>
+        <v>426</v>
       </c>
       <c r="D19">
-        <v>521</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2282,87 +2289,84 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>671565676</v>
+        <v>660415676</v>
       </c>
       <c r="M19">
-        <v>103287709670052</v>
+        <v>104987009447439</v>
       </c>
       <c r="N19">
-        <v>671565676</v>
+        <v>660415676</v>
       </c>
       <c r="O19">
-        <v>103287709670052</v>
+        <v>104987009447439</v>
       </c>
       <c r="P19">
-        <v>16991</v>
+        <v>538</v>
       </c>
       <c r="Q19">
-        <v>-157281947135925</v>
+        <v>176130795478821</v>
       </c>
       <c r="R19">
-        <v>220630149841309</v>
+        <v>208634033203125</v>
       </c>
       <c r="S19">
-        <v>236358344554901</v>
+        <v>191020953655243</v>
       </c>
       <c r="T19">
-        <v>978106897156411</v>
+        <v>932958930664346</v>
       </c>
       <c r="U19">
-        <v>387358537318232</v>
+        <v>408070691489797</v>
       </c>
       <c r="V19">
-        <v>15004663643332</v>
+        <v>166521689252961</v>
       </c>
       <c r="W19">
-        <v>396028837384109</v>
+        <v>4373940567772</v>
       </c>
       <c r="X19">
-        <v>166190142895846</v>
+        <v>501931904697418</v>
       </c>
       <c r="Y19">
-        <v>628618</v>
+        <v>593022</v>
       </c>
       <c r="Z19">
-        <v>967722</v>
+        <v>760101</v>
       </c>
       <c r="AA19">
-        <v>131536</v>
+        <v>124392</v>
       </c>
       <c r="AB19">
-        <v>1409</v>
-      </c>
-      <c r="AC19" s="1" t="s">
+        <v>130417</v>
+      </c>
+      <c r="AC19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>879</v>
+        <v>469</v>
       </c>
       <c r="D20">
-        <v>113</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2371,591 +2375,591 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>687222891937142</v>
+        <v>658265676</v>
       </c>
       <c r="M20">
-        <v>1022919412</v>
+        <v>104821426461181</v>
       </c>
       <c r="N20">
-        <v>687222891937142</v>
+        <v>658265676</v>
       </c>
       <c r="O20">
-        <v>1022919412</v>
+        <v>104821426461181</v>
       </c>
       <c r="P20">
-        <v>88677</v>
+        <v>6382</v>
       </c>
       <c r="Q20">
-        <v>-560180711746216</v>
+        <v>-444592523574829</v>
       </c>
       <c r="R20">
-        <v>226844043731689</v>
+        <v>186907844543457</v>
       </c>
       <c r="S20">
-        <v>282862114906311</v>
+        <v>23136709690094</v>
       </c>
       <c r="T20">
-        <v>979624625556729</v>
+        <v>923013578098068</v>
       </c>
       <c r="U20">
-        <v>393726075748742</v>
+        <v>365754067049434</v>
       </c>
       <c r="V20">
-        <v>155020222724504</v>
+        <v>133776037563202</v>
       </c>
       <c r="W20">
-        <v>401915249450761</v>
+        <v>396260765527518</v>
       </c>
       <c r="X20">
-        <v>868701729204941</v>
+        <v>589067265542187</v>
       </c>
       <c r="Y20">
-        <v>626672</v>
+        <v>60674</v>
       </c>
       <c r="Z20">
-        <v>106633</v>
+        <v>801533</v>
       </c>
       <c r="AA20">
-        <v>130983</v>
+        <v>128346</v>
       </c>
       <c r="AB20">
-        <v>140054</v>
-      </c>
-      <c r="AC20" s="1" t="s">
+        <v>135531</v>
+      </c>
+      <c r="AC20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>899</v>
+        <v>164</v>
       </c>
       <c r="D21">
-        <v>536</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>65509227994264</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>677265676</v>
+        <v>6579914909972</v>
       </c>
       <c r="M21">
-        <v>1030819412</v>
+        <v>1052419412</v>
       </c>
       <c r="N21">
-        <v>676800623293803</v>
+        <v>6579914909972</v>
       </c>
       <c r="O21">
-        <v>103035803159762</v>
+        <v>1052419412</v>
       </c>
       <c r="P21">
-        <v>320</v>
+        <v>4252</v>
       </c>
       <c r="Q21">
-        <v>15627578496933</v>
+        <v>-391372299194336</v>
       </c>
       <c r="R21">
-        <v>217906475067139</v>
+        <v>207917041778564</v>
       </c>
       <c r="S21">
-        <v>202278896570206</v>
+        <v>247054271697998</v>
       </c>
       <c r="T21">
-        <v>846721476130188</v>
+        <v>952645153833706</v>
       </c>
       <c r="U21">
-        <v>375818730795708</v>
+        <v>402797211151702</v>
       </c>
       <c r="V21">
-        <v>141239718416897</v>
+        <v>162245593311589</v>
       </c>
       <c r="W21">
-        <v>443851657706062</v>
+        <v>422819776630086</v>
       </c>
       <c r="X21">
-        <v>27095087236166</v>
+        <v>405064719410092</v>
       </c>
       <c r="Y21">
-        <v>553687</v>
+        <v>600209</v>
       </c>
       <c r="Z21">
-        <v>688323</v>
+        <v>824591</v>
       </c>
       <c r="AA21">
-        <v>127299</v>
+        <v>131192</v>
       </c>
       <c r="AB21">
-        <v>133985</v>
-      </c>
-      <c r="AC21" s="1" t="s">
+        <v>138666</v>
+      </c>
+      <c r="AC21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>783</v>
+        <v>422</v>
       </c>
       <c r="D22">
-        <v>577</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>127478186923743</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>675915676</v>
+        <v>659590670570045</v>
       </c>
       <c r="M22">
-        <v>1039819412</v>
+        <v>105084440815658</v>
       </c>
       <c r="N22">
-        <v>675940670561375</v>
+        <v>659590670570045</v>
       </c>
       <c r="O22">
-        <v>103969440815989</v>
+        <v>105084440815658</v>
       </c>
       <c r="P22">
-        <v>55526</v>
+        <v>1325</v>
       </c>
       <c r="Q22">
-        <v>-5937912940979</v>
+        <v>-503398835659027</v>
       </c>
       <c r="R22">
-        <v>216318244934082</v>
+        <v>199084548950195</v>
       </c>
       <c r="S22">
-        <v>275697374343872</v>
+        <v>204118537306786</v>
       </c>
       <c r="T22">
-        <v>993716510724266</v>
+        <v>907919715328037</v>
       </c>
       <c r="U22">
-        <v>374608458714238</v>
+        <v>374566457777733</v>
       </c>
       <c r="V22">
-        <v>140331497340257</v>
+        <v>140300031292158</v>
       </c>
       <c r="W22">
-        <v>376977190850142</v>
+        <v>412554603071264</v>
       </c>
       <c r="X22">
-        <v>551771029744756</v>
+        <v>120299362280965</v>
       </c>
       <c r="Y22">
-        <v>661645</v>
+        <v>568291</v>
       </c>
       <c r="Z22">
-        <v>108038</v>
+        <v>850851</v>
       </c>
       <c r="AA22">
-        <v>132129</v>
+        <v>126973</v>
       </c>
       <c r="AB22">
-        <v>139889</v>
-      </c>
-      <c r="AC22" s="1" t="s">
+        <v>132628</v>
+      </c>
+      <c r="AC22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>914</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>122</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>424787764390558</v>
       </c>
       <c r="L23">
-        <v>678965676</v>
+        <v>658415676</v>
       </c>
       <c r="M23">
-        <v>102800624901829</v>
+        <v>1060369412</v>
       </c>
       <c r="N23">
-        <v>678965676</v>
+        <v>659582657738805</v>
       </c>
       <c r="O23">
-        <v>102800624901829</v>
+        <v>105628497591911</v>
       </c>
       <c r="P23">
-        <v>17795</v>
+        <v>19361</v>
       </c>
       <c r="Q23">
-        <v>-299767637252808</v>
+        <v>-38630747795105</v>
       </c>
       <c r="R23">
-        <v>221614971160889</v>
+        <v>199580554962158</v>
       </c>
       <c r="S23">
-        <v>251591734886169</v>
+        <v>238211302757263</v>
       </c>
       <c r="T23">
-        <v>967325667974399</v>
+        <v>991075024747459</v>
       </c>
       <c r="U23">
-        <v>376167900825285</v>
+        <v>379609244042802</v>
       </c>
       <c r="V23">
-        <v>141502289611301</v>
+        <v>144103178162747</v>
       </c>
       <c r="W23">
-        <v>388874102362019</v>
+        <v>38302775729772</v>
       </c>
       <c r="X23">
-        <v>172135602616044</v>
+        <v>191882035541356</v>
       </c>
       <c r="Y23">
-        <v>653224</v>
+        <v>645111</v>
       </c>
       <c r="Z23">
-        <v>871855</v>
+        <v>113477</v>
       </c>
       <c r="AA23">
-        <v>130072</v>
+        <v>130297</v>
       </c>
       <c r="AB23">
-        <v>137574</v>
-      </c>
-      <c r="AC23" s="1" t="s">
+        <v>140333</v>
+      </c>
+      <c r="AC23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>916</v>
+        <v>143</v>
       </c>
       <c r="D24">
-        <v>543</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>182516775486986</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>676515676</v>
+        <v>655569849412356</v>
       </c>
       <c r="M24">
-        <v>1024669412</v>
+        <v>1052219412</v>
       </c>
       <c r="N24">
-        <v>678190670556476</v>
+        <v>655569849412356</v>
       </c>
       <c r="O24">
-        <v>102394440815919</v>
+        <v>1052219412</v>
       </c>
       <c r="P24">
-        <v>32588</v>
+        <v>3202</v>
       </c>
       <c r="Q24">
-        <v>-306223201751709</v>
+        <v>252291828393936</v>
       </c>
       <c r="R24">
-        <v>222713432312012</v>
+        <v>20602201461792</v>
       </c>
       <c r="S24">
-        <v>253335752487183</v>
+        <v>203499096333981</v>
       </c>
       <c r="T24">
-        <v>942723292083669</v>
+        <v>943734919057832</v>
       </c>
       <c r="U24">
-        <v>378139415911517</v>
+        <v>362072850098204</v>
       </c>
       <c r="V24">
-        <v>142989417865903</v>
+        <v>131096748778237</v>
       </c>
       <c r="W24">
-        <v>401113899578877</v>
+        <v>38365948190163</v>
       </c>
       <c r="X24">
-        <v>307214666424226</v>
+        <v>302183921082318</v>
       </c>
       <c r="Y24">
-        <v>622921</v>
+        <v>640887</v>
       </c>
       <c r="Z24">
-        <v>869164</v>
+        <v>809754</v>
       </c>
       <c r="AA24">
-        <v>128779</v>
+        <v>129998</v>
       </c>
       <c r="AB24">
-        <v>136775</v>
-      </c>
-      <c r="AC24" s="1" t="s">
+        <v>13577</v>
+      </c>
+      <c r="AC24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>981</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>117</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
         <v>29</v>
       </c>
       <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>474895005376177</v>
       </c>
       <c r="L25">
-        <v>685015676</v>
+        <v>649315676</v>
       </c>
       <c r="M25">
-        <v>102462075393797</v>
+        <v>1058019412</v>
       </c>
       <c r="N25">
-        <v>685015676</v>
+        <v>647648208313385</v>
       </c>
       <c r="O25">
-        <v>102462075393797</v>
+        <v>105357283150177</v>
       </c>
       <c r="P25">
-        <v>333</v>
+        <v>42439</v>
       </c>
       <c r="Q25">
-        <v>962153136730194</v>
+        <v>-498470449447632</v>
       </c>
       <c r="R25">
-        <v>22138822555542</v>
+        <v>203843955993652</v>
       </c>
       <c r="S25">
-        <v>211766694188118</v>
+        <v>253691000938416</v>
       </c>
       <c r="T25">
-        <v>903340311970439</v>
+        <v>977185991682824</v>
       </c>
       <c r="U25">
-        <v>428065717521646</v>
+        <v>380029813713258</v>
       </c>
       <c r="V25">
-        <v>183240258517322</v>
+        <v>144422659310933</v>
       </c>
       <c r="W25">
-        <v>47386982718386</v>
+        <v>388902232479616</v>
       </c>
       <c r="X25">
-        <v>300812323886156</v>
+        <v>414707963010274</v>
       </c>
       <c r="Y25">
-        <v>572347</v>
+        <v>632813</v>
       </c>
       <c r="Z25">
-        <v>711375</v>
+        <v>109805</v>
       </c>
       <c r="AA25">
-        <v>123351</v>
+        <v>130998</v>
       </c>
       <c r="AB25">
-        <v>129387</v>
-      </c>
-      <c r="AC25" s="1" t="s">
+        <v>138376</v>
+      </c>
+      <c r="AC25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>986</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>546</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>529916898392868</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>672815676</v>
+        <v>654588496994314</v>
       </c>
       <c r="M26">
-        <v>1024419412</v>
+        <v>1055669412</v>
       </c>
       <c r="N26">
-        <v>674640670559152</v>
+        <v>654588496994314</v>
       </c>
       <c r="O26">
-        <v>102939440815872</v>
+        <v>1055669412</v>
       </c>
       <c r="P26">
-        <v>380</v>
+        <v>7523</v>
       </c>
       <c r="Q26">
-        <v>-615704774856567</v>
+        <v>-141994535923004</v>
       </c>
       <c r="R26">
-        <v>149167919158936</v>
+        <v>187246284484863</v>
       </c>
       <c r="S26">
-        <v>210738396644592</v>
+        <v>201445738077164</v>
       </c>
       <c r="T26">
-        <v>885529208955796</v>
+        <v>965920684862152</v>
       </c>
       <c r="U26">
-        <v>425987108309043</v>
+        <v>391422822022327</v>
       </c>
       <c r="V26">
-        <v>181465016445501</v>
+        <v>153211825599922</v>
       </c>
       <c r="W26">
-        <v>481053706643242</v>
+        <v>405232881080901</v>
       </c>
       <c r="X26">
-        <v>336501099403203</v>
+        <v>726662131221797</v>
       </c>
       <c r="Y26">
-        <v>448108</v>
+        <v>611449</v>
       </c>
       <c r="Z26">
-        <v>1067</v>
+        <v>976087</v>
       </c>
       <c r="AA26">
-        <v>125969</v>
+        <v>133015</v>
       </c>
       <c r="AB26">
-        <v>134575</v>
-      </c>
-      <c r="AC26" s="1" t="s">
+        <v>139843</v>
+      </c>
+      <c r="AC26" t="s">
         <v>29</v>
       </c>
     </row>
